--- a/python-codes/trading/angel_broking/text-documents/live_market_data_angel.xlsx
+++ b/python-codes/trading/angel_broking/text-documents/live_market_data_angel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A4D71-E10B-4818-B517-DEC53B990522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1CBDAF-120F-43D7-97C2-5F14415663FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,19 +379,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>604</v>
+        <v>90199.9</v>
       </c>
       <c r="B2">
-        <v>608.5</v>
+        <v>90199.9</v>
       </c>
       <c r="C2">
-        <v>603</v>
+        <v>88809.25</v>
       </c>
       <c r="D2">
-        <v>603.35</v>
+        <v>89916.95</v>
       </c>
       <c r="E2">
-        <v>604.95000000000005</v>
+        <v>89000</v>
       </c>
     </row>
   </sheetData>
